--- a/data/trans_orig/IQ21A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91438C06-3D29-4796-BBC9-2DEE8E8A38A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E19C83-9D57-4382-999A-A990D221759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{265019FE-6BD2-43AC-9F3E-F07DD611648A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D104884-67B9-47EC-95E7-4A4F3041A629}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="284">
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="287">
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -128,37 +128,37 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>35,03%</t>
+    <t>26,81%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>30,46%</t>
+    <t>25,1%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>18,82%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>64,97%</t>
+    <t>73,19%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>69,54%</t>
+    <t>74,9%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>81,18%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -173,46 +173,46 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>31,39%</t>
+    <t>29,54%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>16,84%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>45,36%</t>
+    <t>45,43%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>28,03%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>54,64%</t>
+    <t>54,57%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>68,61%</t>
+    <t>70,46%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -230,25 +230,25 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>33,79%</t>
+    <t>26,57%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>60,76%</t>
+    <t>62,24%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -257,7 +257,7 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>71,08%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -272,16 +272,19 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>7,63%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,41%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -293,328 +296,334 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>12,18%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>94,23%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -629,52 +638,52 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>62,48%</t>
+    <t>47,83%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>34,4%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>37,52%</t>
+    <t>52,17%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>31,27%</t>
+    <t>34,0%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>63,77%</t>
+    <t>56,97%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>61,56%</t>
+    <t>50,88%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>25,01%</t>
+    <t>24,47%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -683,127 +692,127 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>49,3%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>27,56%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>41,44%</t>
+    <t>42,98%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>69,75%</t>
+    <t>70,12%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>67,4%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>71,24%</t>
+    <t>74,05%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>45,02%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>84,14%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>49,63%</t>
+    <t>50,7%</t>
   </si>
   <si>
     <t>59,47%</t>
   </si>
   <si>
-    <t>17,24%</t>
+    <t>15,86%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>40,82%</t>
+    <t>39,52%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>55,85%</t>
+    <t>58,09%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>58,72%</t>
+    <t>60,62%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>43,5%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>44,15%</t>
+    <t>41,91%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>41,28%</t>
+    <t>39,38%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>56,5%</t>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>9,38%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>13,2%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -815,67 +824,67 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>11,79%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>6,55%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>19,03%</t>
+    <t>21,87%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -901,7 +910,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -997,39 +1006,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1081,7 +1090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1192,13 +1201,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1207,6 +1209,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1271,19 +1280,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D302D8-5436-4CF1-800B-ECA8F0F0C62A}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39803D-0143-4A7D-878F-FEC48447A64A}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3274,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3384,13 @@
         <v>448</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3370,13 +3399,13 @@
         <v>448</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3420,13 @@
         <v>2589</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3406,13 +3435,13 @@
         <v>691</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -3421,13 +3450,13 @@
         <v>3280</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3471,13 @@
         <v>29865</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" s="7">
         <v>38</v>
@@ -3457,10 +3486,10 @@
         <v>24273</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>14</v>
@@ -3472,13 +3501,13 @@
         <v>54137</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,6 +3559,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3550,8 +3584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D14CB05-38B5-4E09-A4B7-2C2F7F947F44}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F498E4-32DA-4BB6-801D-1B7B34936445}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3567,7 +3601,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3680,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3708,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3757,7 +3791,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3806,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3855,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3904,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>16</v>
@@ -3950,7 +3984,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>16</v>
@@ -4025,7 +4059,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4055,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4106,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4157,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4208,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4257,13 @@
         <v>652</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4238,13 +4272,13 @@
         <v>734</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4253,13 +4287,13 @@
         <v>1387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +4308,10 @@
         <v>4117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -4289,10 +4323,10 @@
         <v>3380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -4304,10 +4338,10 @@
         <v>7497</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -4384,7 +4418,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4414,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4465,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4516,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4567,7 +4601,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4616,13 @@
         <v>1263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4597,13 +4631,13 @@
         <v>685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4612,13 +4646,13 @@
         <v>1948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,10 +4667,10 @@
         <v>5365</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -4648,10 +4682,10 @@
         <v>9816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -4663,13 +4697,13 @@
         <v>15181</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4773,7 +4807,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4843,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4824,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,28 +4873,28 @@
         <v>1516</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -4869,13 +4903,13 @@
         <v>1516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4924,13 @@
         <v>654</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4911,7 +4945,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -4920,13 +4954,13 @@
         <v>654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4990,13 @@
         <v>1254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4971,13 +5005,13 @@
         <v>1254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5026,13 @@
         <v>7606</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5007,10 +5041,10 @@
         <v>3936</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>14</v>
@@ -5022,13 +5056,13 @@
         <v>11541</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5132,7 +5166,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5183,7 +5217,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,7 +5238,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5234,7 +5268,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5285,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5340,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5315,13 +5349,13 @@
         <v>923</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -5330,13 +5364,13 @@
         <v>923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5388,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>16</v>
@@ -5366,10 +5400,10 @@
         <v>7298</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>14</v>
@@ -5381,10 +5415,10 @@
         <v>16446</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>14</v>
@@ -5461,7 +5495,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -5476,7 +5510,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -5491,7 +5525,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5546,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -5527,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -5542,7 +5576,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,28 +5591,28 @@
         <v>1516</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -5587,13 +5621,13 @@
         <v>1516</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5642,13 @@
         <v>654</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5629,7 +5663,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -5638,13 +5672,13 @@
         <v>654</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5693,13 @@
         <v>1915</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -5674,13 +5708,13 @@
         <v>3597</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
@@ -5689,13 +5723,13 @@
         <v>5512</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5744,13 @@
         <v>28392</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7">
         <v>36</v>
@@ -5725,13 +5759,13 @@
         <v>24429</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -5740,13 +5774,13 @@
         <v>52822</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,6 +5832,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5818,8 +5857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3383324B-BB32-49F6-A0A3-C006DB46EC28}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A16E7B5-C1C1-4CC0-A657-4D7FECA5A9E9}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5835,7 +5874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5948,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5976,7 +6015,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +6036,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6025,7 +6064,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,7 +6085,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6074,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6123,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6172,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6229,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>16</v>
@@ -6218,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>16</v>
@@ -6293,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6323,7 +6362,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6377,13 @@
         <v>652</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6368,13 +6407,13 @@
         <v>652</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,7 +6434,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6425,7 +6464,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6476,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,7 +6536,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6506,13 +6545,13 @@
         <v>682</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6521,13 +6560,13 @@
         <v>682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,10 +6581,10 @@
         <v>5053</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -6557,10 +6596,10 @@
         <v>3270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -6572,10 +6611,10 @@
         <v>8323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -6646,13 +6685,13 @@
         <v>790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6676,13 +6715,13 @@
         <v>790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6772,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6823,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6874,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6889,13 @@
         <v>558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6865,13 +6904,13 @@
         <v>676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6880,13 +6919,13 @@
         <v>1234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,10 +6940,10 @@
         <v>4643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -6916,10 +6955,10 @@
         <v>8412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -6931,13 +6970,13 @@
         <v>13055</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7212,13 @@
         <v>469</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -7188,13 +7227,13 @@
         <v>469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7263,13 @@
         <v>757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -7239,13 +7278,13 @@
         <v>757</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,10 +7314,10 @@
         <v>1798</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>14</v>
@@ -7290,10 +7329,10 @@
         <v>4763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>14</v>
@@ -7370,7 +7409,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7385,7 +7424,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7400,7 +7439,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,7 +7460,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7436,7 +7475,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7451,7 +7490,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,7 +7511,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7487,7 +7526,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7502,7 +7541,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7562,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7538,7 +7577,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7553,7 +7592,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7607,13 @@
         <v>692</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -7583,13 +7622,13 @@
         <v>772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -7598,13 +7637,13 @@
         <v>1464</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,10 +7658,10 @@
         <v>4298</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>14</v>
@@ -7634,10 +7673,10 @@
         <v>4393</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>14</v>
@@ -7649,10 +7688,10 @@
         <v>8691</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>14</v>
@@ -7729,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -7753,13 +7792,13 @@
         <v>790</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7813,13 @@
         <v>652</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7804,13 +7843,13 @@
         <v>652</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7861,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -7891,13 +7930,13 @@
         <v>469</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7906,13 +7945,13 @@
         <v>469</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7966,13 @@
         <v>1250</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
@@ -7942,13 +7981,13 @@
         <v>2886</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>6</v>
@@ -7957,13 +7996,13 @@
         <v>4136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8017,13 @@
         <v>18005</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H44" s="7">
         <v>28</v>
@@ -7993,13 +8032,13 @@
         <v>17873</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M44" s="7">
         <v>53</v>
@@ -8008,13 +8047,13 @@
         <v>35878</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8066,6 +8105,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8086,8 +8130,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BF8FA-5C6E-4725-90B6-AE67705217C2}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EDFBDA-FD5C-4BB0-A9FD-8CA825E85667}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8103,7 +8147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9264,7 +9308,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9279,7 +9323,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,7 +9357,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9328,7 +9372,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,7 +9406,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -9377,7 +9421,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9426,7 +9470,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9460,7 +9504,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9475,7 +9519,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,7 +9550,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>16</v>
@@ -9521,7 +9565,7 @@
         <v>14</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>16</v>
@@ -9596,7 +9640,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9611,7 +9655,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9626,7 +9670,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,7 +9691,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9662,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9677,7 +9721,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9698,7 +9742,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9713,7 +9757,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9728,7 +9772,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9749,7 +9793,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9764,7 +9808,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9779,7 +9823,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,7 +9844,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9815,7 +9859,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9830,7 +9874,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9848,7 +9892,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>16</v>
@@ -9863,7 +9907,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>16</v>
@@ -9878,7 +9922,7 @@
         <v>14</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>16</v>
@@ -10207,7 +10251,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>16</v>
@@ -10222,7 +10266,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>16</v>
@@ -10237,7 +10281,7 @@
         <v>14</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>16</v>
@@ -10292,6 +10336,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ21A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E19C83-9D57-4382-999A-A990D221759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BE95EE-2C36-4786-8F64-301CF9E25EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D104884-67B9-47EC-95E7-4A4F3041A629}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC1603FE-0F8C-41DD-BCDC-92A17D08B004}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -92,7 +92,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -113,7 +113,7 @@
     <t>81,26%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -128,40 +128,40 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>26,81%</t>
+    <t>34,69%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>25,1%</t>
+    <t>24,72%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>18,82%</t>
+    <t>18,81%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>73,19%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>74,9%</t>
+    <t>75,28%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -173,46 +173,46 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>29,54%</t>
+    <t>37,51%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>45,43%</t>
+    <t>45,0%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>28,84%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>54,57%</t>
+    <t>55,0%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>70,46%</t>
+    <t>62,49%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -230,25 +230,25 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>26,57%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>62,24%</t>
+    <t>67,08%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -257,7 +257,7 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>71,08%</t>
+    <t>66,36%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -272,73 +272,73 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>11,69%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>9,25%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>13,39%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>85,22%</t>
+    <t>85,16%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -362,37 +362,37 @@
     <t>13,68%</t>
   </si>
   <si>
-    <t>56,66%</t>
+    <t>42,64%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>68,26%</t>
+    <t>80,03%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>39,82%</t>
+    <t>42,0%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>43,34%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>31,74%</t>
+    <t>19,97%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>60,18%</t>
+    <t>58,0%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -404,43 +404,43 @@
     <t>19,05%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>58,38%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>51,0%</t>
+    <t>41,62%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>71,27%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -452,61 +452,58 @@
     <t>15,5%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>31,2%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>27,52%</t>
+    <t>27,72%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>21,67%</t>
   </si>
   <si>
     <t>24,17%</t>
   </si>
   <si>
-    <t>64,61%</t>
+    <t>64,32%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>29,88%</t>
+    <t>28,01%</t>
   </si>
   <si>
     <t>77,81%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>35,39%</t>
+    <t>35,68%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -515,13 +512,13 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>59,23%</t>
+    <t>42,76%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>26,29%</t>
+    <t>26,22%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -530,13 +527,13 @@
     <t>88,77%</t>
   </si>
   <si>
-    <t>40,77%</t>
+    <t>57,24%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>73,71%</t>
+    <t>73,78%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -551,79 +548,82 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>16,26%</t>
+    <t>14,27%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
+    <t>9,94%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,5%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2016 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -638,52 +638,52 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>47,83%</t>
+    <t>53,77%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>29,63%</t>
+    <t>31,96%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>52,17%</t>
+    <t>46,23%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>34,0%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>56,97%</t>
+    <t>58,58%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>50,88%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>24,47%</t>
+    <t>28,89%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -692,127 +692,130 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>49,3%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
+    <t>35,23%</t>
+  </si>
+  <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>27,56%</t>
+    <t>25,96%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>42,98%</t>
+    <t>42,74%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>70,12%</t>
+    <t>64,77%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>46,07%</t>
+    <t>38,24%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>86,59%</t>
+    <t>84,14%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>50,7%</t>
+    <t>50,09%</t>
   </si>
   <si>
     <t>59,47%</t>
   </si>
   <si>
-    <t>15,86%</t>
+    <t>17,24%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>39,52%</t>
+    <t>38,48%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>58,09%</t>
+    <t>57,35%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>60,62%</t>
+    <t>48,45%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>41,91%</t>
+    <t>42,65%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>39,38%</t>
+    <t>51,55%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -821,67 +824,64 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>21,87%</t>
+    <t>21,33%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
@@ -1311,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39803D-0143-4A7D-878F-FEC48447A64A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCAFB90-78C2-405C-9AB2-833B733E2BA9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3584,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F498E4-32DA-4BB6-801D-1B7B34936445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88680DE3-49D3-4C29-8275-B0190A29F6BC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,7 +4879,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4903,13 +4903,13 @@
         <v>1516</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4924,13 @@
         <v>654</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>654</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4990,13 @@
         <v>1254</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5005,13 +5005,13 @@
         <v>1254</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>7606</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5041,10 +5041,10 @@
         <v>3936</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>14</v>
@@ -5056,13 +5056,13 @@
         <v>11541</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5349,13 +5349,13 @@
         <v>923</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -5364,13 +5364,13 @@
         <v>923</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,7 +5388,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>16</v>
@@ -5400,10 +5400,10 @@
         <v>7298</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>14</v>
@@ -5415,10 +5415,10 @@
         <v>16446</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>14</v>
@@ -5495,37 +5495,37 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,37 +5546,37 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,14 +5591,14 @@
         <v>1516</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -5621,13 +5621,13 @@
         <v>1516</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,14 +5642,14 @@
         <v>654</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -5857,7 +5857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A16E7B5-C1C1-4CC0-A657-4D7FECA5A9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88DBAA0-FA6F-4886-912B-A5D9494600D6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6910,7 +6910,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6919,13 +6919,13 @@
         <v>1234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,10 +6940,10 @@
         <v>4643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -6955,10 +6955,10 @@
         <v>8412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>14</v>
@@ -6970,13 +6970,13 @@
         <v>13055</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7218,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -7227,13 +7227,13 @@
         <v>469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7263,13 @@
         <v>757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -7278,13 +7278,13 @@
         <v>757</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,10 +7314,10 @@
         <v>1798</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>14</v>
@@ -7329,10 +7329,10 @@
         <v>4763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>14</v>
@@ -7607,13 +7607,13 @@
         <v>692</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -7622,13 +7622,13 @@
         <v>772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -7637,13 +7637,13 @@
         <v>1464</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,10 +7658,10 @@
         <v>4298</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>14</v>
@@ -7673,10 +7673,10 @@
         <v>4393</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>14</v>
@@ -7688,10 +7688,10 @@
         <v>8691</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>14</v>
@@ -7768,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -7792,13 +7792,13 @@
         <v>790</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7813,13 @@
         <v>652</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7843,13 +7843,13 @@
         <v>652</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>469</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
@@ -8130,7 +8130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EDFBDA-FD5C-4BB0-A9FD-8CA825E85667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD768-2F84-4E18-BECF-BB3C32E1220B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
